--- a/public/static/files/Mau_Import_User.xlsx
+++ b/public/static/files/Mau_Import_User.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\esdmanagerweb\public\static\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D36FCF1-6FF7-4E46-8AAD-4D5E2216EEFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97C77328-A7D3-4751-AE42-1E98EE025B75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{38991E78-2835-400A-BF5E-BCE757A6609C}"/>
   </bookViews>
@@ -35,114 +35,54 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>FullName</t>
-  </si>
-  <si>
-    <t>Gender</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>Email</t>
   </si>
   <si>
-    <t>NV1000</t>
-  </si>
-  <si>
     <t>duong@gmail.com</t>
   </si>
   <si>
-    <t>NV1100</t>
-  </si>
-  <si>
-    <t>Trần Như Quỳnh</t>
-  </si>
-  <si>
-    <t>quynh@gmail.com</t>
-  </si>
-  <si>
-    <t>NV11111</t>
-  </si>
-  <si>
-    <t>Trần Bảo Dương</t>
-  </si>
-  <si>
-    <t>baoduong@gmail.com</t>
-  </si>
-  <si>
-    <t>NV111122</t>
-  </si>
-  <si>
-    <t>khanh@gmail.com</t>
-  </si>
-  <si>
-    <t>Trần bảo hạnh</t>
-  </si>
-  <si>
-    <t>TeamCode</t>
-  </si>
-  <si>
-    <t>Phone</t>
-  </si>
-  <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>Regency</t>
-  </si>
-  <si>
-    <t>Birthday</t>
-  </si>
-  <si>
     <t>Nam</t>
   </si>
   <si>
-    <t>Nữ</t>
-  </si>
-  <si>
-    <t>nam</t>
-  </si>
-  <si>
-    <t>nữ</t>
-  </si>
-  <si>
     <t>T1</t>
   </si>
   <si>
     <t>Giám đốc</t>
   </si>
   <si>
-    <t>Quản lý</t>
-  </si>
-  <si>
-    <t>Nhân sự</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thư ký </t>
-  </si>
-  <si>
-    <t>Nhân viên</t>
-  </si>
-  <si>
-    <t>b7ce0830-19af-11ef-a689-000c29bac5e0</t>
-  </si>
-  <si>
-    <t>c458d9af-19af-11ef-a689-000c29bac5e0</t>
-  </si>
-  <si>
-    <t>bc9b96bc-19af-11ef-a689-000c29bac5e0</t>
-  </si>
-  <si>
-    <t>cd0bd68c-19af-11ef-a689-000c29bac5e0</t>
-  </si>
-  <si>
-    <t>d38e095e-19af-11ef-a689-000c29bac5e0</t>
-  </si>
-  <si>
-    <t>Lê Bảo Nam</t>
+    <t>Mã Nhân viên</t>
+  </si>
+  <si>
+    <t>Họ và tên</t>
+  </si>
+  <si>
+    <t>Mã Team</t>
+  </si>
+  <si>
+    <t>Giới tính</t>
+  </si>
+  <si>
+    <t>Số điện thoại</t>
+  </si>
+  <si>
+    <t>Địa chỉ</t>
+  </si>
+  <si>
+    <t>Chức vụ</t>
+  </si>
+  <si>
+    <t>Ngày  sinh</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>NV10009</t>
+  </si>
+  <si>
+    <t>Lê Bảo Dương</t>
   </si>
 </sst>
 </file>
@@ -193,9 +133,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -511,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B516908C-F2D6-4BE7-B3E7-61526ABCDB95}">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -529,161 +470,103 @@
     <col min="12" max="12" width="45.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="E4" s="1"/>
-      <c r="K4" t="s">
-        <v>25</v>
-      </c>
-      <c r="L4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="H5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" t="s">
-        <v>31</v>
-      </c>
-      <c r="K5" t="s">
-        <v>28</v>
-      </c>
-      <c r="L5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K6" t="s">
-        <v>26</v>
-      </c>
-      <c r="L6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" t="s">
-        <v>32</v>
-      </c>
-      <c r="K7" t="s">
-        <v>27</v>
-      </c>
-      <c r="L7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="22.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" t="s">
-        <v>34</v>
-      </c>
-      <c r="K8" t="s">
-        <v>29</v>
-      </c>
-      <c r="L8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="13.75" customHeight="1" x14ac:dyDescent="0.35"/>
+      <c r="I5" s="2">
+        <v>43873</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" ht="22.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" ht="13.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E5" r:id="rId1" xr:uid="{DC062FF2-B5D9-43AA-847A-545002E6139A}"/>
-    <hyperlink ref="E6" r:id="rId2" xr:uid="{0DCF18CD-51D2-4960-BEC9-9BB8A38D9958}"/>
-    <hyperlink ref="E7" r:id="rId3" xr:uid="{586D95C2-2C87-464B-B986-9BBFDC9F8473}"/>
-    <hyperlink ref="E8" r:id="rId4" xr:uid="{4E677EFB-B006-4B26-9CFF-FE73A9EA8FEE}"/>
+    <hyperlink ref="E5" r:id="rId1" xr:uid="{0CE7F736-AB72-4216-BDFA-C92EAEDEF330}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>